--- a/data_year/zb/资源和环境/环境污染治理投资.xlsx
+++ b/data_year/zb/资源和环境/环境污染治理投资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,727 +488,408 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143.2</v>
+        <v>2670.5958</v>
       </c>
       <c r="C2" t="n">
-        <v>84.3</v>
+        <v>423.5228</v>
       </c>
       <c r="D2" t="n">
-        <v>149.3</v>
+        <v>1172.6854</v>
       </c>
       <c r="E2" t="n">
-        <v>70.90000000000001</v>
+        <v>357.933</v>
       </c>
       <c r="F2" t="n">
-        <v>515.5</v>
+        <v>5182.2109</v>
       </c>
       <c r="G2" t="n">
-        <v>67.8</v>
+        <v>557.4739</v>
       </c>
       <c r="H2" t="n">
-        <v>2347894.7</v>
+        <v>3969768.2</v>
       </c>
       <c r="I2" t="n">
-        <v>260</v>
+        <v>2033.003981</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1014.9</v>
+        <v>7612.191701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.2</v>
+        <v>1991.944</v>
       </c>
       <c r="C3" t="n">
-        <v>50.6</v>
+        <v>556.2303000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>224.5</v>
+        <v>971.6257000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>75.5</v>
+        <v>444.0928</v>
       </c>
       <c r="F3" t="n">
-        <v>595.8</v>
+        <v>4557.2339</v>
       </c>
       <c r="G3" t="n">
-        <v>82</v>
+        <v>593.3411</v>
       </c>
       <c r="H3" t="n">
-        <v>1745280</v>
+        <v>4443610.1</v>
       </c>
       <c r="I3" t="n">
-        <v>336.4</v>
+        <v>2112.4</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>1106.7</v>
+        <v>7114.03349418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.5</v>
+        <v>2380.0446</v>
       </c>
       <c r="C4" t="n">
-        <v>64.8</v>
+        <v>398.6396</v>
       </c>
       <c r="D4" t="n">
-        <v>275</v>
+        <v>934.0837</v>
       </c>
       <c r="E4" t="n">
-        <v>88.40000000000001</v>
+        <v>551.8086</v>
       </c>
       <c r="F4" t="n">
-        <v>789.1</v>
+        <v>5062.6513</v>
       </c>
       <c r="G4" t="n">
-        <v>121.4</v>
+        <v>798.0748</v>
       </c>
       <c r="H4" t="n">
-        <v>1883662.8</v>
+        <v>5004572.672</v>
       </c>
       <c r="I4" t="n">
-        <v>389.7</v>
+        <v>2690.3521</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>1367.2</v>
+        <v>8253.460667200001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>321.9</v>
+        <v>2234.8595</v>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>505.7494</v>
       </c>
       <c r="D5" t="n">
-        <v>375.2</v>
+        <v>1054.9966</v>
       </c>
       <c r="E5" t="n">
-        <v>133.5</v>
+        <v>607.9039</v>
       </c>
       <c r="F5" t="n">
-        <v>1072.4</v>
+        <v>5222.99</v>
       </c>
       <c r="G5" t="n">
-        <v>145.8</v>
+        <v>819.4806</v>
       </c>
       <c r="H5" t="n">
-        <v>2218281</v>
+        <v>8496646.573000001</v>
       </c>
       <c r="I5" t="n">
-        <v>333.5</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>3425.8419</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2964.53277151</v>
+      </c>
       <c r="K5" t="n">
-        <v>1627.7</v>
+        <v>9037.200000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.4619</v>
+        <v>2338.5</v>
       </c>
       <c r="C6" t="n">
-        <v>107.799</v>
+        <v>592.2</v>
       </c>
       <c r="D6" t="n">
-        <v>352.2779</v>
+        <v>1196.1</v>
       </c>
       <c r="E6" t="n">
-        <v>148.323</v>
+        <v>574</v>
       </c>
       <c r="F6" t="n">
-        <v>1141.2</v>
+        <v>5463.9</v>
       </c>
       <c r="G6" t="n">
-        <v>173.3545</v>
+        <v>763</v>
       </c>
       <c r="H6" t="n">
-        <v>3081059.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>460.5</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>9976510.869999999</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>3113.9247695</v>
+      </c>
       <c r="K6" t="n">
-        <v>1909.8</v>
+        <v>9575.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>411.3</v>
+        <v>2075.4</v>
       </c>
       <c r="C7" t="n">
-        <v>147.8</v>
+        <v>472</v>
       </c>
       <c r="D7" t="n">
-        <v>368</v>
+        <v>1248.5</v>
       </c>
       <c r="E7" t="n">
-        <v>142.4</v>
+        <v>463.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1289.7</v>
+        <v>4946.8</v>
       </c>
       <c r="G7" t="n">
-        <v>220.2</v>
+        <v>687.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4581908.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>640.1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>7736822.2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3085.8339</v>
+      </c>
       <c r="K7" t="n">
-        <v>2388.0013</v>
+        <v>8806.299999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429.0132</v>
+        <v>2170.8903</v>
       </c>
       <c r="C8" t="n">
-        <v>175.754</v>
+        <v>561.1102</v>
       </c>
       <c r="D8" t="n">
-        <v>331.5242</v>
+        <v>1485.4815</v>
       </c>
       <c r="E8" t="n">
-        <v>155.0462</v>
+        <v>532.0217</v>
       </c>
       <c r="F8" t="n">
-        <v>1314.9</v>
+        <v>5412.0225</v>
       </c>
       <c r="G8" t="n">
-        <v>223.5859</v>
+        <v>662.5188000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>4839485.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>767.2</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>8190040.51</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2988.80946</v>
+      </c>
       <c r="K8" t="n">
-        <v>2566</v>
+        <v>9219.799999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>525.6</v>
+        <v>2390.2286</v>
       </c>
       <c r="C9" t="n">
-        <v>141.8</v>
+        <v>623.0001</v>
       </c>
       <c r="D9" t="n">
-        <v>410</v>
+        <v>1727.5159</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1</v>
+        <v>566.6709</v>
       </c>
       <c r="F9" t="n">
-        <v>1467.5</v>
+        <v>6085.7492</v>
       </c>
       <c r="G9" t="n">
-        <v>230</v>
+        <v>778.3337</v>
       </c>
       <c r="H9" t="n">
-        <v>5523909.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1367.4</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>6815345.489</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2771.6695242</v>
+      </c>
       <c r="K9" t="n">
-        <v>3387.3</v>
+        <v>9538.9532731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>823.9239</v>
+        <v>2413.448492</v>
       </c>
       <c r="C10" t="n">
-        <v>259.2296</v>
+        <v>605.070424</v>
       </c>
       <c r="D10" t="n">
-        <v>637.1604</v>
+        <v>1897.521283</v>
       </c>
       <c r="E10" t="n">
-        <v>199.2385</v>
+        <v>398.585841</v>
       </c>
       <c r="F10" t="n">
-        <v>2247.7293</v>
+        <v>5893.220974</v>
       </c>
       <c r="G10" t="n">
-        <v>328.1769</v>
+        <v>578.594934</v>
       </c>
       <c r="H10" t="n">
-        <v>5426403.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2146.7</v>
-      </c>
+        <v>6212735.619</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>4937.0293</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1137.64</v>
+        <v>2327.346597</v>
       </c>
       <c r="C11" t="n">
-        <v>411.1542</v>
+        <v>684.406871</v>
       </c>
       <c r="D11" t="n">
-        <v>1035.5445</v>
+        <v>1930.018358</v>
       </c>
       <c r="E11" t="n">
-        <v>219.2004</v>
+        <v>376.471078</v>
       </c>
       <c r="F11" t="n">
-        <v>3245.0627</v>
+        <v>6017.844553</v>
       </c>
       <c r="G11" t="n">
-        <v>441.5236</v>
+        <v>699.601649</v>
       </c>
       <c r="H11" t="n">
-        <v>4426206.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1570.70381004</v>
-      </c>
+        <v>6151513.427</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>5258.38720004</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2670.5958</v>
+        <v>2194.5294</v>
       </c>
       <c r="C12" t="n">
-        <v>423.5228</v>
+        <v>1130.0296</v>
       </c>
       <c r="D12" t="n">
-        <v>1172.6854</v>
+        <v>2675.6904</v>
       </c>
       <c r="E12" t="n">
-        <v>357.933</v>
+        <v>318.2971</v>
       </c>
       <c r="F12" t="n">
-        <v>5182.2109</v>
+        <v>6842.1571</v>
       </c>
       <c r="G12" t="n">
-        <v>557.4739</v>
+        <v>523.6106</v>
       </c>
       <c r="H12" t="n">
-        <v>3969768.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2033.003981</v>
-      </c>
+        <v>4542585.902</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>7612.191701</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1991.944</v>
+        <v>2003.1098</v>
       </c>
       <c r="C13" t="n">
-        <v>556.2303000000001</v>
+        <v>996.9877</v>
       </c>
       <c r="D13" t="n">
-        <v>971.6257000000001</v>
+        <v>2714.7391</v>
       </c>
       <c r="E13" t="n">
-        <v>444.0928</v>
+        <v>305.1501</v>
       </c>
       <c r="F13" t="n">
-        <v>4557.2339</v>
+        <v>6578.2796</v>
       </c>
       <c r="G13" t="n">
-        <v>593.3411</v>
+        <v>558.2929</v>
       </c>
       <c r="H13" t="n">
-        <v>4443610.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2112.4</v>
-      </c>
+        <v>3352364.344</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7114.03349418</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2380.0446</v>
-      </c>
-      <c r="C14" t="n">
-        <v>398.6396</v>
-      </c>
-      <c r="D14" t="n">
-        <v>934.0837</v>
-      </c>
-      <c r="E14" t="n">
-        <v>551.8086</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5062.6513</v>
-      </c>
-      <c r="G14" t="n">
-        <v>798.0748</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5004572.672</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2690.3521</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>8253.460667200001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2234.8595</v>
-      </c>
-      <c r="C15" t="n">
-        <v>505.7494</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1054.9966</v>
-      </c>
-      <c r="E15" t="n">
-        <v>607.9039</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5222.99</v>
-      </c>
-      <c r="G15" t="n">
-        <v>819.4806</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8496646.573000001</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3425.8419</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2964.53277151</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9037.200000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2338.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>592.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1196.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>574</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5463.9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>763</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9976510.869999999</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>3113.9247695</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9575.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2075.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>472</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1248.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>463.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4946.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>687.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7736822.2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3085.8339</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8806.299999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2170.8903</v>
-      </c>
-      <c r="C18" t="n">
-        <v>561.1102</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1485.4815</v>
-      </c>
-      <c r="E18" t="n">
-        <v>532.0217</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5412.0225</v>
-      </c>
-      <c r="G18" t="n">
-        <v>662.5188000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8190040.51</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2988.80946</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9219.799999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2390.2286</v>
-      </c>
-      <c r="C19" t="n">
-        <v>623.0001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1727.5159</v>
-      </c>
-      <c r="E19" t="n">
-        <v>566.6709</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6085.7492</v>
-      </c>
-      <c r="G19" t="n">
-        <v>778.3337</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6815345.489</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2771.6695242</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9538.9532731</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2413.448492</v>
-      </c>
-      <c r="C20" t="n">
-        <v>605.070424</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1897.521283</v>
-      </c>
-      <c r="E20" t="n">
-        <v>398.585841</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5893.220974</v>
-      </c>
-      <c r="G20" t="n">
-        <v>578.594934</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6212735.619</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2327.346597</v>
-      </c>
-      <c r="C21" t="n">
-        <v>684.406871</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1930.018358</v>
-      </c>
-      <c r="E21" t="n">
-        <v>376.471078</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6017.844553</v>
-      </c>
-      <c r="G21" t="n">
-        <v>699.601649</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6151513.427</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2194.5294</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1130.0296</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2675.6904</v>
-      </c>
-      <c r="E22" t="n">
-        <v>318.2971</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6842.1571</v>
-      </c>
-      <c r="G22" t="n">
-        <v>523.6106</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4542585.902</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
